--- a/output/momentum_smooth_by_ticker.xlsx
+++ b/output/momentum_smooth_by_ticker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.63345782204871</v>
+        <v>92.63346448338974</v>
       </c>
       <c r="C2" t="n">
         <v>0.6458333333333334</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.84076922303288</v>
+        <v>42.84077947717685</v>
       </c>
       <c r="C5" t="n">
         <v>0.6666666666666666</v>
@@ -578,6 +578,6389 @@
       </c>
       <c r="C11" t="n">
         <v>0.6875</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9.705081781913707</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9.60189821905813</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.356827876140002</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8.414763034286795</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GDDY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8.258108109180037</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KMI</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8.151683388322343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7.940056318783556</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7.936901282477193</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6.9924471764247</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.635654468751155</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SYF</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6.571823013777672</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WMB</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6.566208885611168</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ETR</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6.034015418621735</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5.687129909160141</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5.286754370404601</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5.16089583282976</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5.067332364550539</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CCL</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5.039270630103059</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PODD</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4.959448344230299</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.839617537727888</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.692913850147103</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4.659324585669189</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GRMN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4.575143801258394</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DFS</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4.562870005832982</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4.466611995798737</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>APO</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4.23172317013896</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TPR</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4.168415381546968</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FICO</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4.077713969946039</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3.778205617191114</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3.763658769023674</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3.709435272096372</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3.528850727519223</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3.469594996253949</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3.412546422055625</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3.389456897071867</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CFG</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3.35528462117768</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BSX</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3.281161704136584</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CBRE</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3.260366795362186</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3.260030181997773</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3.239130642433328</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>OKE</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3.216650041846996</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BX</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3.118165197512792</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3.114376676334385</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MTB</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3.066547977384599</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PEG</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3.060619997529298</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.011913931034412</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ZBRA</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3.011677531108431</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2.976945170656699</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2.975416882750367</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2.946126684867365</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.926499133723486</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BKNG</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2.894403610706259</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NCLH</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2.890384967995907</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>DECK</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2.873990869980632</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2.841944977942299</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.838625648236817</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2.774565574397279</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>COF</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2.748767712557672</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GNRC</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2.737293947863046</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.731440227170734</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.712854778220031</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>IRM</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2.70994933947732</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.689374466676085</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2.66017255477937</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2.65411818464277</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>FFIV</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2.64118811033407</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2.595319407353918</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2.586965357467902</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>RJF</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2.567285293132846</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2.518028108914504</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>FI</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2.51143510532471</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NDAQ</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2.483432097543353</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>LII</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2.454789843007543</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2.451091215399427</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2.425903050131964</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PNC</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2.415531522976703</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2.343933205107429</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2.316392604936374</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2.301850035614402</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2.291407707383676</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2.28657918656107</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>LYV</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2.276979165642943</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>TYL</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2.271876345232854</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2.233662854384801</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2.221084904352429</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2.216285099018717</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2.194184686901303</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2.112523998742271</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>AMP</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2.097835535805434</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2.089731690694055</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>HBAN</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2.047077559488958</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NTRS</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2.008476822168785</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TFC</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2.006010281411464</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>PKG</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1.991718874315473</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1.930945792149099</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>AEE</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1.922228373510421</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1.893531277388548</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>RMD</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1.885988861783735</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1.82186066618962</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1.789380998199179</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1.766971284608674</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>PNR</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1.76378908759661</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>AFL</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1.746964293423229</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1.737197227186762</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1.724242980689467</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1.667039884787495</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>FITB</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1.660509108354944</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1.647432466546051</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1.611253484258758</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>EVRG</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1.600478081818904</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1.561916447405027</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1.50125130650214</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>KEY</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1.489447874224915</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1.475107871234404</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ATO</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1.469813315791746</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1.46567841594321</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1.46528536719133</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>CPAY</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1.464758099288831</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TJX</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1.463870038878861</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>TTWO</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1.460005637221241</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1.434746350624043</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PGR</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1.427596832309038</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1.381941885287095</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PNW</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1.37767944909085</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>CTAS</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1.374454200885307</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1.372049694192455</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>DOC</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1.357571261196828</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>LNT</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1.352804114612735</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1.344686019134881</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>CARR</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1.322031013788382</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>WEC</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1.313213681272581</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>NTAP</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1.311336674651464</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SNA</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1.302469493806706</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1.299128371420337</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BRO</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1.29250005693207</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>AVB</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1.290190927097735</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>CINF</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1.267177116645707</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>DVA</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1.25476907589249</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ESS</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1.229748397480224</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1.205555188198949</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1.204883096453569</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>DGX</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1.204099308294447</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1.192194601814987</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>REG</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1.15834973115057</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SPG</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1.119341032778473</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1.111651967316979</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1.108259273533796</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1.10760687315865</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>CHTR</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1.096480732795702</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>HLT</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1.09127055981524</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>KIM</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1.090591769618897</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1.083278611255465</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>MAA</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1.072776185508686</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1.058054289417227</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1.053560546406793</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1.04433960174504</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1.043047433767261</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1.034428772249392</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>CPT</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1.029427367617578</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>DUK</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1.018514378145677</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>LDOS</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9983587531276319</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>BXP</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9623013156942211</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9235999506996455</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9174098028704392</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.8954486650516242</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>CNP</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.8759652495942882</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>VLTO</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.8751063150979443</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SPGI</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.8714703249461759</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>TDG</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.8664395895720256</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>AIZ</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.8595373449277679</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>WTW</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.8550564872752091</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>AJG</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.8483611297147355</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>UDR</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.8398103073508518</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SCHW</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.8385901592464071</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>CMS</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.8278298480551189</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.8217751536327453</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>EQR</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.8046954097247776</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.8029448735187732</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>EMR</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.8007571667368716</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7955936152598766</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7903349591847126</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.786182491816966</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>HAS</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7745423308148922</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>EOG</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7725204662314289</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>HIG</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7589112674035805</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7574362402563493</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>TSCO</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7545537510014046</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>IVZ</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7452977234220635</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7264675106912764</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7197138841977895</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>HUBB</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.7106653169124546</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>DTE</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.7028344220872833</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ADI</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.7004379462371344</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>JBL</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.6936793417759657</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>AON</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.6923023680261788</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.6910276604066148</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>RSG</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.6890240711934672</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.6866652816039824</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.6864449977353577</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>HON</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.6798790879389534</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>HPQ</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.6787358985200656</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.6768372311264474</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.6389280632731669</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.6377834883833478</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.6341781752502718</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.6333612178670294</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>NWS</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.6300224508384999</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ORLY</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.5972883527424262</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BBY</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.5876637375816882</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.5818979711833967</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.5795287093428054</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>TDY</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.5742116357164175</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.5733423007057021</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>GWW</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.5632761763079086</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.5598879391586897</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.5526442114364889</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0.5513517962209968</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>PAYC</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.5477153803430517</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>DRI</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0.5229415263203394</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>CTRA</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.5097360134973667</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>MKC</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.5047735487892619</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.4951537378571054</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>CTVA</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.4943449902561454</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>LH</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.4870089308247347</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.4868510535059349</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>RVTY</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.4816547346245581</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>KVUE</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.4779408059626178</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>PRU</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.4758401500001033</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.4712346974414876</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ACGL</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.462145296858899</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.4481255570230822</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.4467494784663872</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>AZO</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.4376515520070081</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0.4078132193207367</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.4074558914825732</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.4062328614550337</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>MSCI</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.3987244894861881</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>EXR</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.3976083064661211</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>KEYS</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.3921444626406252</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>URI</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.3824403102850946</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>SOLV</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.3824267831403632</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>FE</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.38186024112392</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.3817041043633549</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.3710146591706711</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.3562625370603749</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.3540817792521636</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.3516256831994358</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>CLX</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.3432424087872104</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>IFF</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.3263928638225044</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>CMG</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.3246865788449604</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>PSA</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.3243439600620082</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.3241289226724458</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.3238893877717253</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>VRSN</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.3232245635649509</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ROL</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0.3193310908509726</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>SYK</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0.3089366937930105</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>NVR</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0.3085882533838191</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>AMCR</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0.3037372914797167</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>EQIX</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.2925834624699164</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.2917755138261389</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0.2908136541465713</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0.2899690011378278</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>PCG</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0.2869188541310272</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>KMB</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0.2636637511291668</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0.2614895550699656</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>TSN</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0.2597608874972195</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>ECL</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0.2578193503758046</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>JNPR</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.256492199445999</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0.2538878850677768</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>AWK</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.2513913153135958</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>NWSA</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0.2478986504425258</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>MMC</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.2403486572803715</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>NOC</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.2223836223251798</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>CPRT</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.2222140123934648</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>EMN</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0.215986286286618</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>WRB</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.2149877542306027</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0.2065962247928113</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0.2053131524656102</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>VICI</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.1949519927108954</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>SHW</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0.1824852866274511</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.1821491331061249</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0.1810139435325284</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0.178597213871011</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0.1733567598564625</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>MHK</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.1711805777415534</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>0.1588650415924595</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0.1574387770887993</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0.1573486916077915</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>DAY</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0.1523098167549803</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.1521935195346185</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0.1490757126639375</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>MKTX</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.1452166518546749</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0.1393708249738861</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>CHD</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.1342653752173639</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.1331439540885426</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>PHM</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.1273305391163282</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.1192917403965856</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>LUV</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.1105139385537481</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>TROW</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.1027042835263656</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>LHX</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.09325623766310276</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>ALLE</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.09041224574043616</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.08895560283022697</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.07593724606566843</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.07267953091471213</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>PFG</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.06802001306213823</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>KMX</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.05748391687356458</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>ERIE</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.05700163107154532</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>AIG</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.05638959605506422</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0.05611233214907152</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>0.05109696568402589</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.0507083911780859</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0.04947234736263395</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.04883238564714154</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>WM</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.04713555878976905</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0.04334373615787412</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.0426937404311436</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0.03837022396573175</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0.03184932858211553</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.02865150498711677</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.02522573445963383</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>CDNS</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.02245363049506088</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>MAS</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.02221816845917624</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.0178154493963707</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.01571785283047777</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.00727990309441795</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.006047059503627938</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>VMC</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.004253817723270936</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.004060242771491529</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.001105022159673452</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.01417208977053885</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>BDX</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.01720575808843749</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.02827076317487998</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ABT</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.03125547326767386</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.03147518423391094</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.03723042986216274</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>ITW</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.04414402127824357</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.05214535807867005</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>-0.06004620791697013</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>OTIS</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.06226016276236312</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>DPZ</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.06949194715021045</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>HES</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.07228304065200619</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>PCAR</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.07503824266925041</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.09064952042244068</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.09351931200306074</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>EFX</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.09505430706244822</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>FCX</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.09506587078458129</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>PARA</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>-0.1103340331586474</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>CAG</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>-0.130790994937487</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>OMC</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>-0.1311652156593476</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>SWK</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.1516640024745086</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>NSC</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.1593387203174317</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>GIS</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.1648269765878243</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.1665304389236537</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>HRL</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.1680694187146768</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>CPB</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.1744867338376975</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.1746422443581386</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.1810427469814109</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>UNP</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>-0.1822693580887771</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>ACN</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.1822740468598685</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.1895984806510611</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ROP</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.1914879801948061</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>DHI</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>-0.193750821944655</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.1997338438396586</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>-0.2076384310551809</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.2088667251422363</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>SYY</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>-0.2093006915714488</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>-0.2113294376363949</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>SBAC</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>-0.2113704059298119</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.2176300649699374</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>XYL</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.2277646343487085</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.2303956133884574</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>YUM</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.2351401628163269</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.2372338793249404</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>INVH</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.2526419305058666</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>MTCH</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>-0.2588455819364298</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>-0.2606968483096863</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>-0.2668701240952149</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>COO</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>-0.2680970093676339</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>-0.2875606449853529</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>-0.2925479316070733</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>STLD</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>-0.3022513238145279</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>-0.3041680205282238</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>MLM</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>-0.308576310659238</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>-0.3128807196177726</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>FMC</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>-0.3130493455217482</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>FTV</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>-0.315502776285108</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>-0.3329546010707395</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>SNPS</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>-0.3395991265420528</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>IEX</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>-0.342220546435384</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>-0.3433004175899786</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>-0.3528576965501299</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>-0.3537961945675199</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ZTS</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>-0.3543315809272172</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>IPG</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>-0.3578784186038451</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>WDAY</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>-0.3644794086273493</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>-0.3807579760167503</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>-0.3814875859143263</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>-0.3867279598514871</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>-0.3894540442373022</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>HST</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>-0.4067045714088646</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>-0.4122074556903389</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>-0.4129799554817046</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>SJM</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>-0.4143196522051774</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>NXPI</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>-0.4166977436574946</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>-0.4223693260907987</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>-0.4274041544527734</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>TAP</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>-0.433466490239638</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>POOL</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>-0.4346238626432494</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>LEN</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>-0.4409726421120681</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>-0.443640968083032</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>-0.450019448048161</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>-0.4507662375005699</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>-0.4545890358205383</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>-0.4564343439478648</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>ZBH</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>-0.4591147524700627</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>MOS</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>-0.46316199233026</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>-0.4646281733944898</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>-0.4671917528062597</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>CCI</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>-0.4690103042967398</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>-0.4761208207305775</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>-0.4766289282318513</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>BALL</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>-0.4817040480622802</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>UBER</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>-0.4833875536971529</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>-0.4871697529880155</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>OXY</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>-0.4884036396621115</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>-0.4885129555197649</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>-0.4964724756975573</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>-0.5022569374647321</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>GPN</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>-0.5060463890525972</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>ABNB</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>-0.5096723279435995</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>AOS</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>-0.5123666947753773</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>HSY</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>-0.5130368626701858</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>ARE</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>-0.5147123302138972</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>LULU</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>-0.5176351125557919</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>WYNN</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>-0.5195788395978025</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>-0.5408430187609004</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>MDLZ</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>-0.5461865716532237</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>-0.5479585948620631</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>-0.5512564006599481</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>-0.5711522978562333</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>-0.582253185299588</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>-0.5822916022009801</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>TFX</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>-0.5856207517296341</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>-0.589587357037097</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>GPC</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>-0.5915645285015929</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>HUM</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>-0.5936431098403898</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>-0.5951695718530257</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>NDSN</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>-0.5966080972964849</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>CZR</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>-0.5976121491270165</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>-0.5978982564513158</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>-0.6044059005815811</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>-0.6078092020226886</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>LYB</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>-0.6105172461417414</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>ADBE</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>-0.6171904836662381</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>APTV</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>-0.6190971849917337</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>BLDR</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>-0.6226525635951933</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>MGM</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>-0.645163942119755</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>ULTA</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>-0.6506964114206331</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>ELV</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>-0.6533724187632588</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>-0.6583684501268716</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>-0.6584149646013571</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>CDW</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>-0.6688338869736525</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>STZ</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>-0.6709077019955217</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>-0.6815414346613422</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>LKQ</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>-0.6946755398916467</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>-0.6964986124918063</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>BAX</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>-0.6987585743665549</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>MOH</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>-0.7046540309034826</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>-0.7100536024283226</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>-0.7168517196684805</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>-0.7264067233112046</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>-0.7370446715395764</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-0.7508473379555267</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>-0.7789549042526169</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>-0.7837991358371772</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>CRL</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.7916350493906401</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>-0.7926624033272314</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>-0.8106569431204036</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>-0.8131998443862406</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>-0.826741736522965</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>-0.846607447185947</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>-0.8579574108800347</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>-0.8955032137234921</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>-0.9083281461268462</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>-0.928734438685121</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>-0.9328148367604427</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>DG</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.9434905113143552</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.9461735702179312</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.957138658350877</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-0.9737743583996654</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>SMCI</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>-0.9882086815103145</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.4166666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/output/momentum_smooth_by_ticker.xlsx
+++ b/output/momentum_smooth_by_ticker.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.63346448338974</v>
+        <v>92.63346302724916</v>
       </c>
       <c r="C2" t="n">
         <v>0.6458333333333334</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.84077947717685</v>
+        <v>42.84077675059142</v>
       </c>
       <c r="C5" t="n">
         <v>0.6666666666666666</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.53264186649847</v>
+        <v>15.53264062687421</v>
       </c>
       <c r="C8" t="n">
         <v>0.6875</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.43565681127309</v>
+        <v>12.43565955984353</v>
       </c>
       <c r="C10" t="n">
         <v>0.5833333333333334</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.705081781913707</v>
+        <v>9.705079252010494</v>
       </c>
       <c r="C12" t="n">
         <v>0.5208333333333334</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.60189821905813</v>
+        <v>9.601898898325526</v>
       </c>
       <c r="C13" t="n">
         <v>0.6458333333333334</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.356827876140002</v>
+        <v>9.35682786321817</v>
       </c>
       <c r="C14" t="n">
         <v>0.6041666666666666</v>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.414763034286795</v>
+        <v>8.414762914587593</v>
       </c>
       <c r="C15" t="n">
         <v>0.6041666666666666</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.151683388322343</v>
+        <v>8.151682336185701</v>
       </c>
       <c r="C17" t="n">
         <v>0.6666666666666666</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.936901282477193</v>
+        <v>7.936900656128744</v>
       </c>
       <c r="C19" t="n">
         <v>0.6041666666666666</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.9924471764247</v>
+        <v>6.992446402545726</v>
       </c>
       <c r="C20" t="n">
         <v>0.625</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.571823013777672</v>
+        <v>6.571825868644099</v>
       </c>
       <c r="C22" t="n">
         <v>0.6666666666666666</v>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.566208885611168</v>
+        <v>6.566207194026114</v>
       </c>
       <c r="C23" t="n">
         <v>0.6875</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.034015418621735</v>
+        <v>6.034014853592867</v>
       </c>
       <c r="C24" t="n">
         <v>0.6666666666666666</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.687129909160141</v>
+        <v>5.68713066551602</v>
       </c>
       <c r="C25" t="n">
         <v>0.5625</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.286754370404601</v>
+        <v>5.28675487397696</v>
       </c>
       <c r="C26" t="n">
         <v>0.6041666666666666</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.16089583282976</v>
+        <v>5.160895340386044</v>
       </c>
       <c r="C27" t="n">
         <v>0.6458333333333334</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.067332364550539</v>
+        <v>5.06733315275796</v>
       </c>
       <c r="C28" t="n">
         <v>0.6041666666666666</v>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.839617537727888</v>
+        <v>4.839617186350162</v>
       </c>
       <c r="C31" t="n">
         <v>0.625</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.692913850147103</v>
+        <v>4.692914887970317</v>
       </c>
       <c r="C32" t="n">
         <v>0.6041666666666666</v>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.659324585669189</v>
+        <v>4.659323553953545</v>
       </c>
       <c r="C33" t="n">
         <v>0.6041666666666666</v>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.575143801258394</v>
+        <v>4.575142600605631</v>
       </c>
       <c r="C34" t="n">
         <v>0.5833333333333334</v>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.562870005832982</v>
+        <v>4.5628696536799</v>
       </c>
       <c r="C35" t="n">
         <v>0.6041666666666666</v>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.466611995798737</v>
+        <v>4.46661197934056</v>
       </c>
       <c r="C36" t="n">
         <v>0.5416666666666666</v>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.23172317013896</v>
+        <v>4.231722796011653</v>
       </c>
       <c r="C37" t="n">
         <v>0.6458333333333334</v>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.168415381546968</v>
+        <v>4.168414105075744</v>
       </c>
       <c r="C38" t="n">
         <v>0.5625</v>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.778205617191114</v>
+        <v>3.778205279787008</v>
       </c>
       <c r="C40" t="n">
         <v>0.5833333333333334</v>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.763658769023674</v>
+        <v>3.763658739142673</v>
       </c>
       <c r="C41" t="n">
         <v>0.5833333333333334</v>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.469594996253949</v>
+        <v>3.469595847032819</v>
       </c>
       <c r="C44" t="n">
         <v>0.5416666666666666</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.412546422055625</v>
+        <v>3.412545476923442</v>
       </c>
       <c r="C45" t="n">
         <v>0.6041666666666666</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.35528462117768</v>
+        <v>3.355284586582792</v>
       </c>
       <c r="C47" t="n">
         <v>0.6041666666666666</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.260030181997773</v>
+        <v>3.26003050342412</v>
       </c>
       <c r="C50" t="n">
         <v>0.6458333333333334</v>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.239130642433328</v>
+        <v>3.239129421237521</v>
       </c>
       <c r="C51" t="n">
         <v>0.625</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.216650041846996</v>
+        <v>3.216650041846994</v>
       </c>
       <c r="C52" t="n">
         <v>0.5833333333333334</v>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.118165197512792</v>
+        <v>3.118165203510343</v>
       </c>
       <c r="C53" t="n">
         <v>0.5625</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3.114376676334385</v>
+        <v>3.114376380489734</v>
       </c>
       <c r="C54" t="n">
         <v>0.6666666666666666</v>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.066547977384599</v>
+        <v>3.06654706182044</v>
       </c>
       <c r="C55" t="n">
         <v>0.6041666666666666</v>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.060619997529298</v>
+        <v>3.060619487787939</v>
       </c>
       <c r="C56" t="n">
         <v>0.625</v>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.011913931034412</v>
+        <v>3.011912675965313</v>
       </c>
       <c r="C57" t="n">
         <v>0.5416666666666666</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2.975416882750367</v>
+        <v>2.97541757939047</v>
       </c>
       <c r="C60" t="n">
         <v>0.625</v>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.946126684867365</v>
+        <v>2.946126354505936</v>
       </c>
       <c r="C61" t="n">
         <v>0.625</v>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.926499133723486</v>
+        <v>2.92649912557744</v>
       </c>
       <c r="C62" t="n">
         <v>0.5625</v>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.894403610706259</v>
+        <v>2.894403617360329</v>
       </c>
       <c r="C63" t="n">
         <v>0.5416666666666666</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.841944977942299</v>
+        <v>2.841944952136562</v>
       </c>
       <c r="C66" t="n">
         <v>0.625</v>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.838625648236817</v>
+        <v>2.838625648236818</v>
       </c>
       <c r="C67" t="n">
         <v>0.625</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.774565574397279</v>
+        <v>2.774565926684331</v>
       </c>
       <c r="C68" t="n">
         <v>0.6875</v>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.748767712557672</v>
+        <v>2.748768996308808</v>
       </c>
       <c r="C69" t="n">
         <v>0.6458333333333334</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.712854778220031</v>
+        <v>2.712854779358288</v>
       </c>
       <c r="C72" t="n">
         <v>0.6041666666666666</v>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2.70994933947732</v>
+        <v>2.709949331422547</v>
       </c>
       <c r="C73" t="n">
         <v>0.625</v>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2.689374466676085</v>
+        <v>2.689374143842502</v>
       </c>
       <c r="C74" t="n">
         <v>0.6666666666666666</v>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2.66017255477937</v>
+        <v>2.660172214746918</v>
       </c>
       <c r="C75" t="n">
         <v>0.625</v>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.65411818464277</v>
+        <v>2.654118618070543</v>
       </c>
       <c r="C76" t="n">
         <v>0.6458333333333334</v>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.595319407353918</v>
+        <v>2.59531965407186</v>
       </c>
       <c r="C78" t="n">
         <v>0.6041666666666666</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.586965357467902</v>
+        <v>2.586965355333104</v>
       </c>
       <c r="C79" t="n">
         <v>0.6875</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.567285293132846</v>
+        <v>2.567285060357936</v>
       </c>
       <c r="C80" t="n">
         <v>0.6458333333333334</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.518028108914504</v>
+        <v>2.518027725227034</v>
       </c>
       <c r="C81" t="n">
         <v>0.6041666666666666</v>
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.454789843007543</v>
+        <v>2.454789610928609</v>
       </c>
       <c r="C84" t="n">
         <v>0.5208333333333334</v>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.451091215399427</v>
+        <v>2.451091208405587</v>
       </c>
       <c r="C85" t="n">
         <v>0.6041666666666666</v>
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2.415531522976703</v>
+        <v>2.415531895183964</v>
       </c>
       <c r="C87" t="n">
         <v>0.6458333333333334</v>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2.343933205107429</v>
+        <v>2.343933461899772</v>
       </c>
       <c r="C88" t="n">
         <v>0.6041666666666666</v>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2.316392604936374</v>
+        <v>2.316392604936375</v>
       </c>
       <c r="C89" t="n">
         <v>0.5416666666666666</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2.301850035614402</v>
+        <v>2.30185073554353</v>
       </c>
       <c r="C90" t="n">
         <v>0.6041666666666666</v>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.291407707383676</v>
+        <v>2.291407436417433</v>
       </c>
       <c r="C91" t="n">
         <v>0.625</v>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.233662854384801</v>
+        <v>2.233663180059532</v>
       </c>
       <c r="C95" t="n">
         <v>0.6041666666666666</v>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.221084904352429</v>
+        <v>2.221085515437635</v>
       </c>
       <c r="C96" t="n">
         <v>0.6041666666666666</v>
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.216285099018717</v>
+        <v>2.216285449955963</v>
       </c>
       <c r="C97" t="n">
         <v>0.6666666666666666</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2.194184686901303</v>
+        <v>2.194184696195059</v>
       </c>
       <c r="C98" t="n">
         <v>0.5833333333333334</v>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.112523998742271</v>
+        <v>2.112523453651214</v>
       </c>
       <c r="C99" t="n">
         <v>0.5625</v>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2.097835535805434</v>
+        <v>2.097835766892362</v>
       </c>
       <c r="C100" t="n">
         <v>0.6666666666666666</v>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.089731690694055</v>
+        <v>2.089731911889424</v>
       </c>
       <c r="C101" t="n">
         <v>0.5833333333333334</v>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2.047077559488958</v>
+        <v>2.047078261950399</v>
       </c>
       <c r="C102" t="n">
         <v>0.6041666666666666</v>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2.008476822168785</v>
+        <v>2.008476245977106</v>
       </c>
       <c r="C103" t="n">
         <v>0.5625</v>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.991718874315473</v>
+        <v>1.991718879912992</v>
       </c>
       <c r="C105" t="n">
         <v>0.625</v>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1.930945792149099</v>
+        <v>1.930945398024651</v>
       </c>
       <c r="C106" t="n">
         <v>0.5833333333333334</v>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.922228373510421</v>
+        <v>1.922228373510422</v>
       </c>
       <c r="C107" t="n">
         <v>0.5833333333333334</v>
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1.893531277388548</v>
+        <v>1.893530987857648</v>
       </c>
       <c r="C108" t="n">
         <v>0.5625</v>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1.885988861783735</v>
+        <v>1.885989337037252</v>
       </c>
       <c r="C109" t="n">
         <v>0.4583333333333333</v>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1.789380998199179</v>
+        <v>1.78938077885797</v>
       </c>
       <c r="C111" t="n">
         <v>0.625</v>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1.766971284608674</v>
+        <v>1.766970696945462</v>
       </c>
       <c r="C112" t="n">
         <v>0.5833333333333334</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1.76378908759661</v>
+        <v>1.763789365200779</v>
       </c>
       <c r="C113" t="n">
         <v>0.5208333333333334</v>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.746964293423229</v>
+        <v>1.746964045296283</v>
       </c>
       <c r="C114" t="n">
         <v>0.5625</v>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1.724242980689467</v>
+        <v>1.724243228015409</v>
       </c>
       <c r="C116" t="n">
         <v>0.625</v>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1.667039884787495</v>
+        <v>1.667040106567519</v>
       </c>
       <c r="C117" t="n">
         <v>0.6041666666666666</v>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1.660509108354944</v>
+        <v>1.660508800239641</v>
       </c>
       <c r="C118" t="n">
         <v>0.5625</v>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1.647432466546051</v>
+        <v>1.647433012923062</v>
       </c>
       <c r="C119" t="n">
         <v>0.4791666666666667</v>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1.611253484258758</v>
+        <v>1.611253952106183</v>
       </c>
       <c r="C120" t="n">
         <v>0.4791666666666667</v>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1.600478081818904</v>
+        <v>1.600477876497098</v>
       </c>
       <c r="C121" t="n">
         <v>0.5833333333333334</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1.561916447405027</v>
+        <v>1.561916445032482</v>
       </c>
       <c r="C122" t="n">
         <v>0.5208333333333334</v>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1.489447874224915</v>
+        <v>1.489447537219023</v>
       </c>
       <c r="C124" t="n">
         <v>0.625</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.475107871234404</v>
+        <v>1.475108604571104</v>
       </c>
       <c r="C125" t="n">
         <v>0.5416666666666666</v>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1.469813315791746</v>
+        <v>1.469813315791745</v>
       </c>
       <c r="C126" t="n">
         <v>0.5625</v>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1.463870038878861</v>
+        <v>1.463870038878862</v>
       </c>
       <c r="C130" t="n">
         <v>0.5625</v>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1.434746350624043</v>
+        <v>1.434746344747055</v>
       </c>
       <c r="C132" t="n">
         <v>0.6875</v>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1.427596832309038</v>
+        <v>1.427597211031491</v>
       </c>
       <c r="C133" t="n">
         <v>0.5833333333333334</v>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1.37767944909085</v>
+        <v>1.377679434924621</v>
       </c>
       <c r="C135" t="n">
         <v>0.5416666666666666</v>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1.372049694192455</v>
+        <v>1.372049702917465</v>
       </c>
       <c r="C137" t="n">
         <v>0.6041666666666666</v>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1.344686019134881</v>
+        <v>1.344686206456654</v>
       </c>
       <c r="C140" t="n">
         <v>0.6041666666666666</v>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1.322031013788382</v>
+        <v>1.322031169872749</v>
       </c>
       <c r="C141" t="n">
         <v>0.6458333333333334</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1.313213681272581</v>
+        <v>1.313213221201127</v>
       </c>
       <c r="C142" t="n">
         <v>0.5416666666666666</v>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1.311336674651464</v>
+        <v>1.311336495943721</v>
       </c>
       <c r="C143" t="n">
         <v>0.625</v>
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1.302469493806706</v>
+        <v>1.302469003375489</v>
       </c>
       <c r="C144" t="n">
         <v>0.5416666666666666</v>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1.299128371420337</v>
+        <v>1.299128109703094</v>
       </c>
       <c r="C145" t="n">
         <v>0.5625</v>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1.29250005693207</v>
+        <v>1.292500056932071</v>
       </c>
       <c r="C146" t="n">
         <v>0.5416666666666666</v>
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1.290190927097735</v>
+        <v>1.290190524666303</v>
       </c>
       <c r="C147" t="n">
         <v>0.5208333333333334</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1.267177116645707</v>
+        <v>1.26717727393994</v>
       </c>
       <c r="C148" t="n">
         <v>0.5208333333333334</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1.204883096453569</v>
+        <v>1.204882848550921</v>
       </c>
       <c r="C152" t="n">
         <v>0.5833333333333334</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1.204099308294447</v>
+        <v>1.204099308294445</v>
       </c>
       <c r="C153" t="n">
         <v>0.5833333333333334</v>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1.192194601814987</v>
+        <v>1.192194119699807</v>
       </c>
       <c r="C154" t="n">
         <v>0.5833333333333334</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1.15834973115057</v>
+        <v>1.158349451145265</v>
       </c>
       <c r="C155" t="n">
         <v>0.5416666666666666</v>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1.111651967316979</v>
+        <v>1.111651611318714</v>
       </c>
       <c r="C157" t="n">
         <v>0.5833333333333334</v>
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1.108259273533796</v>
+        <v>1.108259537039782</v>
       </c>
       <c r="C158" t="n">
         <v>0.4791666666666667</v>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1.10760687315865</v>
+        <v>1.107607309247105</v>
       </c>
       <c r="C159" t="n">
         <v>0.5416666666666666</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1.09127055981524</v>
+        <v>1.091270715252821</v>
       </c>
       <c r="C161" t="n">
         <v>0.6041666666666666</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1.090591769618897</v>
+        <v>1.090591556147086</v>
       </c>
       <c r="C162" t="n">
         <v>0.5416666666666666</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1.083278611255465</v>
+        <v>1.083278614403981</v>
       </c>
       <c r="C163" t="n">
         <v>0.5833333333333334</v>
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1.072776185508686</v>
+        <v>1.072776433878185</v>
       </c>
       <c r="C164" t="n">
         <v>0.5833333333333334</v>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1.058054289417227</v>
+        <v>1.058053945688703</v>
       </c>
       <c r="C165" t="n">
         <v>0.5416666666666666</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1.053560546406793</v>
+        <v>1.05356034140662</v>
       </c>
       <c r="C166" t="n">
         <v>0.4791666666666667</v>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1.043047433767261</v>
+        <v>1.043047262627146</v>
       </c>
       <c r="C168" t="n">
         <v>0.5416666666666666</v>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1.034428772249392</v>
+        <v>1.03442850708704</v>
       </c>
       <c r="C169" t="n">
         <v>0.5208333333333334</v>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1.029427367617578</v>
+        <v>1.029427358713172</v>
       </c>
       <c r="C170" t="n">
         <v>0.5625</v>
@@ -2654,7 +2654,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1.018514378145677</v>
+        <v>1.018514558208603</v>
       </c>
       <c r="C171" t="n">
         <v>0.5625</v>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.9983587531276319</v>
+        <v>0.9983586381443139</v>
       </c>
       <c r="C172" t="n">
         <v>0.5625</v>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.9623013156942211</v>
+        <v>0.9623014354114898</v>
       </c>
       <c r="C173" t="n">
         <v>0.5208333333333334</v>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.9235999506996455</v>
+        <v>0.9235999531706387</v>
       </c>
       <c r="C174" t="n">
         <v>0.4791666666666667</v>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.8954486650516242</v>
+        <v>0.8954483000018567</v>
       </c>
       <c r="C176" t="n">
         <v>0.5625</v>
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.8759652495942882</v>
+        <v>0.8759655133147732</v>
       </c>
       <c r="C177" t="n">
         <v>0.5208333333333334</v>
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.8751063150979443</v>
+        <v>0.8751064763858469</v>
       </c>
       <c r="C178" t="n">
         <v>0.625</v>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.8714703249461759</v>
+        <v>0.8714701936174414</v>
       </c>
       <c r="C179" t="n">
         <v>0.6041666666666666</v>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.8595373449277679</v>
+        <v>0.8595371828096234</v>
       </c>
       <c r="C181" t="n">
         <v>0.5</v>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.8550564872752091</v>
+        <v>0.8550569037752429</v>
       </c>
       <c r="C182" t="n">
         <v>0.5416666666666666</v>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.8483611297147355</v>
+        <v>0.8483612458548311</v>
       </c>
       <c r="C183" t="n">
         <v>0.6041666666666666</v>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.8398103073508518</v>
+        <v>0.8398101085288703</v>
       </c>
       <c r="C184" t="n">
         <v>0.4583333333333333</v>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.8385901592464071</v>
+        <v>0.8385908039653418</v>
       </c>
       <c r="C185" t="n">
         <v>0.6041666666666666</v>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.8278298480551189</v>
+        <v>0.8278300921542421</v>
       </c>
       <c r="C186" t="n">
         <v>0.5625</v>
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.8217751536327453</v>
+        <v>0.8217749879939491</v>
       </c>
       <c r="C187" t="n">
         <v>0.5833333333333334</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.8046954097247776</v>
+        <v>0.8046954037073029</v>
       </c>
       <c r="C188" t="n">
         <v>0.5208333333333334</v>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.8007571667368716</v>
+        <v>0.8007574308776886</v>
       </c>
       <c r="C190" t="n">
         <v>0.6041666666666666</v>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.7955936152598766</v>
+        <v>0.7955937397432828</v>
       </c>
       <c r="C191" t="n">
         <v>0.5</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.7903349591847126</v>
+        <v>0.7903348469371625</v>
       </c>
       <c r="C192" t="n">
         <v>0.4791666666666667</v>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.786182491816966</v>
+        <v>0.7861827604560945</v>
       </c>
       <c r="C193" t="n">
         <v>0.4791666666666667</v>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.7745423308148922</v>
+        <v>0.7745421897245286</v>
       </c>
       <c r="C194" t="n">
         <v>0.5833333333333334</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.7725204662314289</v>
+        <v>0.7725203490938588</v>
       </c>
       <c r="C195" t="n">
         <v>0.5208333333333334</v>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.7589112674035805</v>
+        <v>0.758911411318778</v>
       </c>
       <c r="C196" t="n">
         <v>0.5625</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.7574362402563493</v>
+        <v>0.7574361063953556</v>
       </c>
       <c r="C197" t="n">
         <v>0.5416666666666666</v>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.7545537510014046</v>
+        <v>0.7545537546753989</v>
       </c>
       <c r="C198" t="n">
         <v>0.5833333333333334</v>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.7452977234220635</v>
+        <v>0.7452978334284768</v>
       </c>
       <c r="C199" t="n">
         <v>0.6458333333333334</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.7197138841977895</v>
+        <v>0.7197136380250104</v>
       </c>
       <c r="C201" t="n">
         <v>0.6041666666666666</v>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.7106653169124546</v>
+        <v>0.7106650354894788</v>
       </c>
       <c r="C202" t="n">
         <v>0.5833333333333334</v>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.7028344220872833</v>
+        <v>0.7028347900980443</v>
       </c>
       <c r="C203" t="n">
         <v>0.5625</v>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.7004379462371344</v>
+        <v>0.7004378069591743</v>
       </c>
       <c r="C204" t="n">
         <v>0.5625</v>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.6936793417759657</v>
+        <v>0.6936789456836414</v>
       </c>
       <c r="C205" t="n">
         <v>0.5833333333333334</v>
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.6890240711934672</v>
+        <v>0.6890239296731819</v>
       </c>
       <c r="C208" t="n">
         <v>0.5833333333333334</v>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.6866652816039824</v>
+        <v>0.6866652851212385</v>
       </c>
       <c r="C209" t="n">
         <v>0.5833333333333334</v>
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.6798790879389534</v>
+        <v>0.6798792204369881</v>
       </c>
       <c r="C211" t="n">
         <v>0.5833333333333334</v>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.6787358985200656</v>
+        <v>0.6787359032300044</v>
       </c>
       <c r="C212" t="n">
         <v>0.5208333333333334</v>
@@ -3200,7 +3200,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.6768372311264474</v>
+        <v>0.6768378753654225</v>
       </c>
       <c r="C213" t="n">
         <v>0.5625</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.6389280632731669</v>
+        <v>0.6389280621662454</v>
       </c>
       <c r="C214" t="n">
         <v>0.5625</v>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.6341781752502718</v>
+        <v>0.6341787096152547</v>
       </c>
       <c r="C216" t="n">
         <v>0.5208333333333334</v>
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.6333612178670294</v>
+        <v>0.633360992879993</v>
       </c>
       <c r="C217" t="n">
         <v>0.5833333333333334</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.6300224508384999</v>
+        <v>0.6300223363300546</v>
       </c>
       <c r="C218" t="n">
         <v>0.5416666666666666</v>
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.5876637375816882</v>
+        <v>0.5876637373738192</v>
       </c>
       <c r="C220" t="n">
         <v>0.375</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.5818979711833967</v>
+        <v>0.5818979711833969</v>
       </c>
       <c r="C221" t="n">
         <v>0.5208333333333334</v>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.5795287093428054</v>
+        <v>0.5795285175273892</v>
       </c>
       <c r="C222" t="n">
         <v>0.6666666666666666</v>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.5733423007057021</v>
+        <v>0.5733420035822487</v>
       </c>
       <c r="C224" t="n">
         <v>0.5416666666666666</v>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.5632761763079086</v>
+        <v>0.5632760806562276</v>
       </c>
       <c r="C225" t="n">
         <v>0.5208333333333334</v>
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.5598879391586897</v>
+        <v>0.5598880367114436</v>
       </c>
       <c r="C226" t="n">
         <v>0.4791666666666667</v>
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.5526442114364889</v>
+        <v>0.5526442114364882</v>
       </c>
       <c r="C227" t="n">
         <v>0.5208333333333334</v>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.5513517962209968</v>
+        <v>0.5513519547465764</v>
       </c>
       <c r="C228" t="n">
         <v>0.5208333333333334</v>
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.5097360134973667</v>
+        <v>0.5097357844125672</v>
       </c>
       <c r="C231" t="n">
         <v>0.5625</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.5047735487892619</v>
+        <v>0.5047733772275593</v>
       </c>
       <c r="C232" t="n">
         <v>0.5</v>
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.4951537378571054</v>
+        <v>0.4951537376952304</v>
       </c>
       <c r="C233" t="n">
         <v>0.5208333333333334</v>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.4943449902561454</v>
+        <v>0.4943450952938013</v>
       </c>
       <c r="C234" t="n">
         <v>0.5625</v>
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.4870089308247347</v>
+        <v>0.4870089310663592</v>
       </c>
       <c r="C235" t="n">
         <v>0.5</v>
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.4816547346245581</v>
+        <v>0.4816548426561302</v>
       </c>
       <c r="C237" t="n">
         <v>0.5625</v>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.4779408059626178</v>
+        <v>0.4779409436192352</v>
       </c>
       <c r="C238" t="n">
         <v>0.5416666666666666</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.4758401500001033</v>
+        <v>0.4758402559534869</v>
       </c>
       <c r="C239" t="n">
         <v>0.5833333333333334</v>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.4712346974414876</v>
+        <v>0.4712348616752033</v>
       </c>
       <c r="C240" t="n">
         <v>0.5416666666666666</v>
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.4481255570230822</v>
+        <v>0.4481257110659318</v>
       </c>
       <c r="C242" t="n">
         <v>0.5625</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.4467494784663872</v>
+        <v>0.446749365910736</v>
       </c>
       <c r="C243" t="n">
         <v>0.625</v>
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.4078132193207367</v>
+        <v>0.4078129354307558</v>
       </c>
       <c r="C245" t="n">
         <v>0.5625</v>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.4074558914825732</v>
+        <v>0.4074558845012255</v>
       </c>
       <c r="C246" t="n">
         <v>0.5416666666666666</v>
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.4062328614550337</v>
+        <v>0.4062329785156162</v>
       </c>
       <c r="C247" t="n">
         <v>0.5416666666666666</v>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.3987244894861881</v>
+        <v>0.3987246441951566</v>
       </c>
       <c r="C248" t="n">
         <v>0.5208333333333334</v>
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.3976083064661211</v>
+        <v>0.397608140425685</v>
       </c>
       <c r="C249" t="n">
         <v>0.6041666666666666</v>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.3824403102850946</v>
+        <v>0.382440181046291</v>
       </c>
       <c r="C251" t="n">
         <v>0.4791666666666667</v>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.3817041043633549</v>
+        <v>0.3817042223029914</v>
       </c>
       <c r="C254" t="n">
         <v>0.5625</v>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.3710146591706711</v>
+        <v>0.3710145067527433</v>
       </c>
       <c r="C255" t="n">
         <v>0.5208333333333334</v>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.3516256831994358</v>
+        <v>0.3516257986480986</v>
       </c>
       <c r="C258" t="n">
         <v>0.5416666666666666</v>
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.3432424087872104</v>
+        <v>0.3432424062782153</v>
       </c>
       <c r="C259" t="n">
         <v>0.5208333333333334</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.3263928638225044</v>
+        <v>0.3263928687686335</v>
       </c>
       <c r="C260" t="n">
         <v>0.5833333333333334</v>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.3243439600620082</v>
+        <v>0.3243433731467205</v>
       </c>
       <c r="C262" t="n">
         <v>0.5416666666666666</v>
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.3193310908509726</v>
+        <v>0.3193309790476011</v>
       </c>
       <c r="C266" t="n">
         <v>0.5</v>
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.3089366937930105</v>
+        <v>0.3089366919892413</v>
       </c>
       <c r="C267" t="n">
         <v>0.5208333333333334</v>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.3037372914797167</v>
+        <v>0.3037370127634409</v>
       </c>
       <c r="C269" t="n">
         <v>0.4583333333333333</v>
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.2925834624699164</v>
+        <v>0.2925837345745368</v>
       </c>
       <c r="C270" t="n">
         <v>0.5208333333333334</v>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.2908136541465713</v>
+        <v>0.2908137361060033</v>
       </c>
       <c r="C272" t="n">
         <v>0.5625</v>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.2899690011378278</v>
+        <v>0.2899692957048656</v>
       </c>
       <c r="C273" t="n">
         <v>0.5208333333333334</v>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.2869188541310272</v>
+        <v>0.2869190024331554</v>
       </c>
       <c r="C274" t="n">
         <v>0.5416666666666666</v>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.2636637511291668</v>
+        <v>0.2636636698149664</v>
       </c>
       <c r="C275" t="n">
         <v>0.5625</v>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.2614895550699656</v>
+        <v>0.2614896235176021</v>
       </c>
       <c r="C276" t="n">
         <v>0.5208333333333334</v>
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.2578193503758046</v>
+        <v>0.2578190922147676</v>
       </c>
       <c r="C278" t="n">
         <v>0.625</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.256492199445999</v>
+        <v>0.2564921952997088</v>
       </c>
       <c r="C279" t="n">
         <v>0.6041666666666666</v>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.2538878850677768</v>
+        <v>0.2538879678851431</v>
       </c>
       <c r="C280" t="n">
         <v>0.5416666666666666</v>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.2513913153135958</v>
+        <v>0.2513913153135963</v>
       </c>
       <c r="C281" t="n">
         <v>0.4583333333333333</v>
@@ -4110,7 +4110,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.2403486572803715</v>
+        <v>0.2403487498185048</v>
       </c>
       <c r="C283" t="n">
         <v>0.5625</v>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.2223836223251798</v>
+        <v>0.2223836223251801</v>
       </c>
       <c r="C284" t="n">
         <v>0.5625</v>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.2149877542306027</v>
+        <v>0.2149875872174312</v>
       </c>
       <c r="C287" t="n">
         <v>0.5416666666666666</v>
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.2065962247928113</v>
+        <v>0.2065956860687856</v>
       </c>
       <c r="C288" t="n">
         <v>0.4375</v>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.2053131524656102</v>
+        <v>0.2053131524656084</v>
       </c>
       <c r="C289" t="n">
         <v>0.5625</v>
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.1949519927108954</v>
+        <v>0.1949522372614676</v>
       </c>
       <c r="C290" t="n">
         <v>0.5416666666666666</v>
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.1824852866274511</v>
+        <v>0.1824852866274513</v>
       </c>
       <c r="C291" t="n">
         <v>0.5208333333333334</v>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.1821491331061249</v>
+        <v>0.1821491308717773</v>
       </c>
       <c r="C292" t="n">
         <v>0.5</v>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.1810139435325284</v>
+        <v>0.1810140699887457</v>
       </c>
       <c r="C293" t="n">
         <v>0.5416666666666666</v>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.178597213871011</v>
+        <v>0.1785973128525471</v>
       </c>
       <c r="C294" t="n">
         <v>0.5208333333333334</v>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.1733567598564625</v>
+        <v>0.1733566352324376</v>
       </c>
       <c r="C295" t="n">
         <v>0.5625</v>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.1574387770887993</v>
+        <v>0.1574384699491556</v>
       </c>
       <c r="C298" t="n">
         <v>0.625</v>
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.1573486916077915</v>
+        <v>0.1573485743666316</v>
       </c>
       <c r="C299" t="n">
         <v>0.4791666666666667</v>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.1521935195346185</v>
+        <v>0.1521935169071786</v>
       </c>
       <c r="C301" t="n">
         <v>0.5416666666666666</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.1490757126639375</v>
+        <v>0.1490757126639377</v>
       </c>
       <c r="C302" t="n">
         <v>0.4375</v>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.1452166518546749</v>
+        <v>0.1452165695324092</v>
       </c>
       <c r="C303" t="n">
         <v>0.5625</v>
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.1393708249738861</v>
+        <v>0.1393710469384009</v>
       </c>
       <c r="C304" t="n">
         <v>0.625</v>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.1342653752173639</v>
+        <v>0.1342654623519939</v>
       </c>
       <c r="C305" t="n">
         <v>0.5</v>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.1273305391163282</v>
+        <v>0.1273303025017971</v>
       </c>
       <c r="C307" t="n">
         <v>0.4791666666666667</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.1192917403965856</v>
+        <v>0.1192915405892294</v>
       </c>
       <c r="C308" t="n">
         <v>0.5625</v>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.1105139385537481</v>
+        <v>0.1105140668697073</v>
       </c>
       <c r="C309" t="n">
         <v>0.6041666666666666</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.1027042835263656</v>
+        <v>0.1027041269258329</v>
       </c>
       <c r="C310" t="n">
         <v>0.5208333333333334</v>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.09325623766310276</v>
+        <v>0.093256158929369</v>
       </c>
       <c r="C311" t="n">
         <v>0.5208333333333334</v>
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.07593724606566843</v>
+        <v>0.07593713426871518</v>
       </c>
       <c r="C314" t="n">
         <v>0.5416666666666666</v>
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.07267953091471213</v>
+        <v>0.07267941474108852</v>
       </c>
       <c r="C315" t="n">
         <v>0.4583333333333333</v>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.06802001306213823</v>
+        <v>0.06802000873936898</v>
       </c>
       <c r="C316" t="n">
         <v>0.5208333333333334</v>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.05700163107154532</v>
+        <v>0.05700144661110063</v>
       </c>
       <c r="C318" t="n">
         <v>0.6041666666666666</v>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.05638959605506422</v>
+        <v>0.05638959126193432</v>
       </c>
       <c r="C319" t="n">
         <v>0.6041666666666666</v>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.05611233214907152</v>
+        <v>0.05611255091931167</v>
       </c>
       <c r="C320" t="n">
         <v>0.4791666666666667</v>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.0507083911780859</v>
+        <v>0.05070838100439179</v>
       </c>
       <c r="C322" t="n">
         <v>0.5833333333333334</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.04947234736263395</v>
+        <v>0.04947252522842827</v>
       </c>
       <c r="C323" t="n">
         <v>0.5</v>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.04883238564714154</v>
+        <v>0.04883245370349498</v>
       </c>
       <c r="C324" t="n">
         <v>0.5416666666666666</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.04713555878976905</v>
+        <v>0.047135402133611</v>
       </c>
       <c r="C325" t="n">
         <v>0.5833333333333334</v>
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.0426937404311436</v>
+        <v>0.04269383414035177</v>
       </c>
       <c r="C327" t="n">
         <v>0.4166666666666667</v>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.03837022396573175</v>
+        <v>0.03837022343424801</v>
       </c>
       <c r="C328" t="n">
         <v>0.5208333333333334</v>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.03184932858211553</v>
+        <v>0.03184953888036679</v>
       </c>
       <c r="C329" t="n">
         <v>0.4375</v>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.02865150498711677</v>
+        <v>0.02865141808955118</v>
       </c>
       <c r="C330" t="n">
         <v>0.5416666666666666</v>
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.02522573445963383</v>
+        <v>0.02522565226518814</v>
       </c>
       <c r="C331" t="n">
         <v>0.625</v>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.02221816845917624</v>
+        <v>0.02221774775722896</v>
       </c>
       <c r="C333" t="n">
         <v>0.4583333333333333</v>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.0178154493963707</v>
+        <v>0.01781556272303542</v>
       </c>
       <c r="C334" t="n">
         <v>0.5625</v>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.01571785283047777</v>
+        <v>0.01571785600808218</v>
       </c>
       <c r="C335" t="n">
         <v>0.5833333333333334</v>
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.00727990309441795</v>
+        <v>0.007279786599559301</v>
       </c>
       <c r="C336" t="n">
         <v>0.5833333333333334</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.006047059503627938</v>
+        <v>0.006047060193914433</v>
       </c>
       <c r="C337" t="n">
         <v>0.5625</v>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.004253817723270936</v>
+        <v>0.004253988721056201</v>
       </c>
       <c r="C338" t="n">
         <v>0.5208333333333334</v>
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.004060242771491529</v>
+        <v>0.004060043442466688</v>
       </c>
       <c r="C339" t="n">
         <v>0.5</v>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>-0.01720575808843749</v>
+        <v>-0.01720588621431995</v>
       </c>
       <c r="C342" t="n">
         <v>0.5208333333333334</v>
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>-0.03125547326767386</v>
+        <v>-0.0312554732676732</v>
       </c>
       <c r="C344" t="n">
         <v>0.5</v>
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>-0.03147518423391094</v>
+        <v>-0.03147518423391182</v>
       </c>
       <c r="C345" t="n">
         <v>0.5208333333333334</v>
@@ -4929,7 +4929,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>-0.03723042986216274</v>
+        <v>-0.03723050516675319</v>
       </c>
       <c r="C346" t="n">
         <v>0.5625</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>-0.04414402127824357</v>
+        <v>-0.04414368296812787</v>
       </c>
       <c r="C347" t="n">
         <v>0.5208333333333334</v>
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>-0.05214535807867005</v>
+        <v>-0.05214535226866157</v>
       </c>
       <c r="C348" t="n">
         <v>0.5</v>
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>-0.06004620791697013</v>
+        <v>-0.06004642115699832</v>
       </c>
       <c r="C349" t="n">
         <v>0.625</v>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>-0.06226016276236312</v>
+        <v>-0.0622600050987997</v>
       </c>
       <c r="C350" t="n">
         <v>0.5</v>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>-0.06949194715021045</v>
+        <v>-0.06949207816112157</v>
       </c>
       <c r="C351" t="n">
         <v>0.5416666666666666</v>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>-0.07228304065200619</v>
+        <v>-0.07228313968060607</v>
       </c>
       <c r="C352" t="n">
         <v>0.4791666666666667</v>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>-0.07503824266925041</v>
+        <v>-0.07503817860514261</v>
       </c>
       <c r="C353" t="n">
         <v>0.5</v>
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>-0.09064952042244068</v>
+        <v>-0.09064952513304481</v>
       </c>
       <c r="C354" t="n">
         <v>0.5208333333333334</v>
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>-0.09351931200306074</v>
+        <v>-0.09351922631689824</v>
       </c>
       <c r="C355" t="n">
         <v>0.5</v>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>-0.09505430706244822</v>
+        <v>-0.09505420432447154</v>
       </c>
       <c r="C356" t="n">
         <v>0.5208333333333334</v>
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>-0.09506587078458129</v>
+        <v>-0.09506597232727887</v>
       </c>
       <c r="C357" t="n">
         <v>0.4791666666666667</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>-0.1103340331586474</v>
+        <v>-0.1103340331586476</v>
       </c>
       <c r="C358" t="n">
         <v>0.4791666666666667</v>
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>-0.130790994937487</v>
+        <v>-0.1307909942902359</v>
       </c>
       <c r="C359" t="n">
         <v>0.4791666666666667</v>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>-0.1311652156593476</v>
+        <v>-0.131165064484471</v>
       </c>
       <c r="C360" t="n">
         <v>0.5416666666666666</v>
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>-0.1516640024745086</v>
+        <v>-0.1516642254105294</v>
       </c>
       <c r="C361" t="n">
         <v>0.5208333333333334</v>
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>-0.1665304389236537</v>
+        <v>-0.1665305057648832</v>
       </c>
       <c r="C364" t="n">
         <v>0.375</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>-0.1680694187146768</v>
+        <v>-0.1680693626546562</v>
       </c>
       <c r="C365" t="n">
         <v>0.5208333333333334</v>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>-0.1744867338376975</v>
+        <v>-0.1744866571162783</v>
       </c>
       <c r="C366" t="n">
         <v>0.6041666666666666</v>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>-0.1746422443581386</v>
+        <v>-0.1746422443581388</v>
       </c>
       <c r="C367" t="n">
         <v>0.5</v>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>-0.1810427469814109</v>
+        <v>-0.1810428758890091</v>
       </c>
       <c r="C368" t="n">
         <v>0.4375</v>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>-0.1822693580887771</v>
+        <v>-0.1822692568760326</v>
       </c>
       <c r="C369" t="n">
         <v>0.4791666666666667</v>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>-0.1822740468598685</v>
+        <v>-0.1822741131711197</v>
       </c>
       <c r="C370" t="n">
         <v>0.4583333333333333</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>-0.1895984806510611</v>
+        <v>-0.1895984101195818</v>
       </c>
       <c r="C371" t="n">
         <v>0.4375</v>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>-0.1914879801948061</v>
+        <v>-0.1914877989475746</v>
       </c>
       <c r="C372" t="n">
         <v>0.4375</v>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>-0.193750821944655</v>
+        <v>-0.1937510609620837</v>
       </c>
       <c r="C373" t="n">
         <v>0.4791666666666667</v>
@@ -5293,7 +5293,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>-0.1997338438396586</v>
+        <v>-0.199733747156613</v>
       </c>
       <c r="C374" t="n">
         <v>0.5416666666666666</v>
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>-0.2076384310551809</v>
+        <v>-0.2076384836546298</v>
       </c>
       <c r="C375" t="n">
         <v>0.625</v>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>-0.2088667251422363</v>
+        <v>-0.2088668341468816</v>
       </c>
       <c r="C376" t="n">
         <v>0.5625</v>
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>-0.2093006915714488</v>
+        <v>-0.2093006915714489</v>
       </c>
       <c r="C377" t="n">
         <v>0.4583333333333333</v>
@@ -5358,7 +5358,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>-0.2113704059298119</v>
+        <v>-0.2113704634842489</v>
       </c>
       <c r="C379" t="n">
         <v>0.375</v>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>-0.2176300649699374</v>
+        <v>-0.2176300070186311</v>
       </c>
       <c r="C380" t="n">
         <v>0.5208333333333334</v>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>-0.2277646343487085</v>
+        <v>-0.2277646343487086</v>
       </c>
       <c r="C381" t="n">
         <v>0.5208333333333334</v>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>-0.2526419305058666</v>
+        <v>-0.2526420162030711</v>
       </c>
       <c r="C385" t="n">
         <v>0.5</v>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>-0.2606968483096863</v>
+        <v>-0.260696906471196</v>
       </c>
       <c r="C387" t="n">
         <v>0.5416666666666666</v>
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>-0.2875606449853529</v>
+        <v>-0.2875606461839871</v>
       </c>
       <c r="C390" t="n">
         <v>0.5</v>
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>-0.2925479316070733</v>
+        <v>-0.2925479919418209</v>
       </c>
       <c r="C391" t="n">
         <v>0.5208333333333334</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>-0.3022513238145279</v>
+        <v>-0.3022512841776727</v>
       </c>
       <c r="C392" t="n">
         <v>0.5</v>
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>-0.3041680205282238</v>
+        <v>-0.3041679544575415</v>
       </c>
       <c r="C393" t="n">
         <v>0.5208333333333334</v>
@@ -5553,7 +5553,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>-0.308576310659238</v>
+        <v>-0.3085762333308468</v>
       </c>
       <c r="C394" t="n">
         <v>0.5</v>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>-0.3128807196177726</v>
+        <v>-0.3128804298756889</v>
       </c>
       <c r="C395" t="n">
         <v>0.5208333333333334</v>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>-0.3130493455217482</v>
+        <v>-0.3130493019971295</v>
       </c>
       <c r="C396" t="n">
         <v>0.5416666666666666</v>
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>-0.315502776285108</v>
+        <v>-0.3155027154447072</v>
       </c>
       <c r="C397" t="n">
         <v>0.5</v>
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>-0.3329546010707395</v>
+        <v>-0.332954602166767</v>
       </c>
       <c r="C398" t="n">
         <v>0.4791666666666667</v>
@@ -5631,7 +5631,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>-0.342220546435384</v>
+        <v>-0.3422205888958231</v>
       </c>
       <c r="C400" t="n">
         <v>0.4375</v>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>-0.3433004175899786</v>
+        <v>-0.3433004671499481</v>
       </c>
       <c r="C401" t="n">
         <v>0.4375</v>
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>-0.3528576965501299</v>
+        <v>-0.3528577449922465</v>
       </c>
       <c r="C402" t="n">
         <v>0.5625</v>
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>-0.3537961945675199</v>
+        <v>-0.3537963159376378</v>
       </c>
       <c r="C403" t="n">
         <v>0.5</v>
@@ -5683,7 +5683,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>-0.3543315809272172</v>
+        <v>-0.3543314643945094</v>
       </c>
       <c r="C404" t="n">
         <v>0.5625</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>-0.3807579760167503</v>
+        <v>-0.3807578842103522</v>
       </c>
       <c r="C407" t="n">
         <v>0.5625</v>
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>-0.3814875859143263</v>
+        <v>-0.3814876748750027</v>
       </c>
       <c r="C408" t="n">
         <v>0.4791666666666667</v>
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>-0.3894540442373022</v>
+        <v>-0.3894540442373021</v>
       </c>
       <c r="C410" t="n">
         <v>0.5833333333333334</v>
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>-0.4067045714088646</v>
+        <v>-0.4067046283376468</v>
       </c>
       <c r="C411" t="n">
         <v>0.3958333333333333</v>
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>-0.4122074556903389</v>
+        <v>-0.4122072697365675</v>
       </c>
       <c r="C412" t="n">
         <v>0.5208333333333334</v>
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>-0.4129799554817046</v>
+        <v>-0.4129798992570536</v>
       </c>
       <c r="C413" t="n">
         <v>0.5</v>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>-0.4143196522051774</v>
+        <v>-0.4143196920636917</v>
       </c>
       <c r="C414" t="n">
         <v>0.5625</v>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>-0.4166977436574946</v>
+        <v>-0.4166977786485623</v>
       </c>
       <c r="C415" t="n">
         <v>0.5</v>
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>-0.4223693260907987</v>
+        <v>-0.4223694597433535</v>
       </c>
       <c r="C416" t="n">
         <v>0.4166666666666667</v>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>-0.4274041544527734</v>
+        <v>-0.4274042122194746</v>
       </c>
       <c r="C417" t="n">
         <v>0.4375</v>
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>-0.433466490239638</v>
+        <v>-0.4334665259056286</v>
       </c>
       <c r="C418" t="n">
         <v>0.4583333333333333</v>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>-0.4346238626432494</v>
+        <v>-0.4346239059630449</v>
       </c>
       <c r="C419" t="n">
         <v>0.4375</v>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>-0.4409726421120681</v>
+        <v>-0.4409726443942943</v>
       </c>
       <c r="C420" t="n">
         <v>0.4583333333333333</v>
@@ -5904,7 +5904,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>-0.443640968083032</v>
+        <v>-0.443640968354135</v>
       </c>
       <c r="C421" t="n">
         <v>0.4791666666666667</v>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>-0.450019448048161</v>
+        <v>-0.4500194480481605</v>
       </c>
       <c r="C422" t="n">
         <v>0.4375</v>
@@ -5930,7 +5930,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>-0.4507662375005699</v>
+        <v>-0.450766173122864</v>
       </c>
       <c r="C423" t="n">
         <v>0.5</v>
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>-0.4545890358205383</v>
+        <v>-0.4545891279952733</v>
       </c>
       <c r="C424" t="n">
         <v>0.5</v>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>-0.4564343439478648</v>
+        <v>-0.4564343439478655</v>
       </c>
       <c r="C425" t="n">
         <v>0.5208333333333334</v>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>-0.4591147524700627</v>
+        <v>-0.4591146856553394</v>
       </c>
       <c r="C426" t="n">
         <v>0.5</v>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>-0.46316199233026</v>
+        <v>-0.463161926533571</v>
       </c>
       <c r="C427" t="n">
         <v>0.5208333333333334</v>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>-0.4646281733944898</v>
+        <v>-0.4646280994326325</v>
       </c>
       <c r="C428" t="n">
         <v>0.5208333333333334</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>-0.4690103042967398</v>
+        <v>-0.4690102647464794</v>
       </c>
       <c r="C430" t="n">
         <v>0.4375</v>
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>-0.4766289282318513</v>
+        <v>-0.4766289283771269</v>
       </c>
       <c r="C432" t="n">
         <v>0.4583333333333333</v>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>-0.4817040480622802</v>
+        <v>-0.4817040180568929</v>
       </c>
       <c r="C433" t="n">
         <v>0.5625</v>
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>-0.4871697529880155</v>
+        <v>-0.487169873673577</v>
       </c>
       <c r="C435" t="n">
         <v>0.5416666666666666</v>
@@ -6099,7 +6099,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>-0.4884036396621115</v>
+        <v>-0.4884037052050213</v>
       </c>
       <c r="C436" t="n">
         <v>0.4375</v>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>-0.4964724756975573</v>
+        <v>-0.4964724315161874</v>
       </c>
       <c r="C438" t="n">
         <v>0.5</v>
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>-0.5022569374647321</v>
+        <v>-0.5022569749289608</v>
       </c>
       <c r="C439" t="n">
         <v>0.4791666666666667</v>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>-0.5060463890525972</v>
+        <v>-0.5060463303840018</v>
       </c>
       <c r="C440" t="n">
         <v>0.5208333333333334</v>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>-0.5123666947753773</v>
+        <v>-0.5123666513176651</v>
       </c>
       <c r="C442" t="n">
         <v>0.4166666666666667</v>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>-0.5130368626701858</v>
+        <v>-0.5130368616631336</v>
       </c>
       <c r="C443" t="n">
         <v>0.4375</v>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>-0.5147123302138972</v>
+        <v>-0.514712391177238</v>
       </c>
       <c r="C444" t="n">
         <v>0.5</v>
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>-0.5408430187609004</v>
+        <v>-0.5408430183653874</v>
       </c>
       <c r="C447" t="n">
         <v>0.4583333333333333</v>
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>-0.5461865716532237</v>
+        <v>-0.5461864227531704</v>
       </c>
       <c r="C448" t="n">
         <v>0.3958333333333333</v>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>-0.5512564006599481</v>
+        <v>-0.5512564410418312</v>
       </c>
       <c r="C450" t="n">
         <v>0.5</v>
@@ -6294,7 +6294,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>-0.5711522978562333</v>
+        <v>-0.5711523005937764</v>
       </c>
       <c r="C451" t="n">
         <v>0.5208333333333334</v>
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>-0.582253185299588</v>
+        <v>-0.5822532105923472</v>
       </c>
       <c r="C452" t="n">
         <v>0.3958333333333333</v>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>-0.5856207517296341</v>
+        <v>-0.5856207534568457</v>
       </c>
       <c r="C454" t="n">
         <v>0.4791666666666667</v>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>-0.5915645285015929</v>
+        <v>-0.5915644863582528</v>
       </c>
       <c r="C456" t="n">
         <v>0.4791666666666667</v>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>-0.5951695718530257</v>
+        <v>-0.5951695486473004</v>
       </c>
       <c r="C458" t="n">
         <v>0.4583333333333333</v>
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>-0.5966080972964849</v>
+        <v>-0.5966080959964872</v>
       </c>
       <c r="C459" t="n">
         <v>0.4791666666666667</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>-0.6044059005815811</v>
+        <v>-0.6044059517005677</v>
       </c>
       <c r="C462" t="n">
         <v>0.5416666666666666</v>
@@ -6450,7 +6450,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>-0.6078092020226886</v>
+        <v>-0.6078093271747592</v>
       </c>
       <c r="C463" t="n">
         <v>0.4791666666666667</v>
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>-0.6105172461417414</v>
+        <v>-0.6105172775107525</v>
       </c>
       <c r="C464" t="n">
         <v>0.5</v>
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>-0.6533724187632588</v>
+        <v>-0.6533724393827139</v>
       </c>
       <c r="C470" t="n">
         <v>0.5625</v>
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>-0.6583684501268716</v>
+        <v>-0.6583684255579617</v>
       </c>
       <c r="C471" t="n">
         <v>0.5416666666666666</v>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>-0.6688338869736525</v>
+        <v>-0.6688339076565257</v>
       </c>
       <c r="C473" t="n">
         <v>0.5625</v>
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>-0.6709077019955217</v>
+        <v>-0.6709077425304846</v>
       </c>
       <c r="C474" t="n">
         <v>0.5</v>
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>-0.6946755398916467</v>
+        <v>-0.6946755862305283</v>
       </c>
       <c r="C476" t="n">
         <v>0.4583333333333333</v>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>-0.6964986124918063</v>
+        <v>-0.6964985913415053</v>
       </c>
       <c r="C477" t="n">
         <v>0.4375</v>
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>-0.6987585743665549</v>
+        <v>-0.6987586312114591</v>
       </c>
       <c r="C478" t="n">
         <v>0.5</v>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>-0.7168517196684805</v>
+        <v>-0.7168517071262732</v>
       </c>
       <c r="C481" t="n">
         <v>0.3958333333333333</v>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>-0.7264067233112046</v>
+        <v>-0.7264067233112045</v>
       </c>
       <c r="C482" t="n">
         <v>0.4375</v>
@@ -6736,7 +6736,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>-0.7789549042526169</v>
+        <v>-0.7789548805220738</v>
       </c>
       <c r="C485" t="n">
         <v>0.5</v>
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>-0.7837991358371772</v>
+        <v>-0.7837991135547892</v>
       </c>
       <c r="C486" t="n">
         <v>0.5416666666666666</v>
@@ -6775,7 +6775,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>-0.7926624033272314</v>
+        <v>-0.7926623851742882</v>
       </c>
       <c r="C488" t="n">
         <v>0.4791666666666667</v>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>-0.826741736522965</v>
+        <v>-0.8267417081315316</v>
       </c>
       <c r="C491" t="n">
         <v>0.5416666666666666</v>
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>-0.8579574108800347</v>
+        <v>-0.8579574108800349</v>
       </c>
       <c r="C493" t="n">
         <v>0.6041666666666666</v>
@@ -6853,7 +6853,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>-0.8955032137234921</v>
+        <v>-0.8955031938368361</v>
       </c>
       <c r="C494" t="n">
         <v>0.4166666666666667</v>
@@ -6879,7 +6879,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>-0.928734438685121</v>
+        <v>-0.9287344387395559</v>
       </c>
       <c r="C496" t="n">
         <v>0.3958333333333333</v>
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>-0.9434905113143552</v>
+        <v>-0.9434905171215312</v>
       </c>
       <c r="C498" t="n">
         <v>0.4166666666666667</v>
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>-0.9461735702179312</v>
+        <v>-0.9461735654832581</v>
       </c>
       <c r="C499" t="n">
         <v>0.4375</v>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>-0.957138658350877</v>
+        <v>-0.9571386624994924</v>
       </c>
       <c r="C500" t="n">
         <v>0.3958333333333333</v>
